--- a/datasets/sentiment.xlsx
+++ b/datasets/sentiment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\aina-foundations-of-analytics\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\aina-foundations-of-analytics\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196391B-5593-4226-8C13-13A307CA3EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CD3D28-17E7-495E-9695-C1A627618F40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13373" activeTab="1" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
-  <si>
-    <t>review</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="310">
   <si>
     <t>Unfortunately, the frustration of being Dr. Goldberg's patient is a repeat of the experience I've had with so many other doctors in NYC -- good doctor, terrible staff.  It seems that his staff simply never answers the phone.  It usually takes 2 hours of repeated calling to get an answer.  Who has time for that or wants to deal with it?  I have run into this problem with many other doctors and I just don't get it.  You have office workers, you have patients with medical needs, why isn't anyone answering the phone?  It's incomprehensible and not work the aggravation.  It's with regret that I feel that I have to give Dr. Goldberg 2 stars.</t>
   </si>
@@ -947,6 +944,27 @@
   </si>
   <si>
     <t>polarity</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>Review</t>
   </si>
 </sst>
 </file>
@@ -982,11 +1000,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,7 +1133,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="Stringfest" defaultPivotStyle="Stringfest_Pivot">
+  <tableStyles count="3" defaultTableStyle="Stringfest" defaultPivotStyle="Stringfest_Pivot">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BC9F7250-37C3-4BA7-9EAA-EF35BF59A1D9}"/>
     <tableStyle name="Stringfest" pivot="0" count="3" xr9:uid="{80757AD5-BA57-4B3B-81C1-A3519B7631A7}">
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1446,6 +1466,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{5485047F-CC5B-40ED-B339-9461BB425DC1}">
+  <we:reference id="wa104379638" version="1.0.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104379638" version="1.0.0.0" store="WA104379638" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="endpoints" value="&quot;[{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/2a951e49ed8d43cfbe3afc68aa6d3878/swagger.json\&quot;,\&quot;token\&quot;:\&quot;xSc38GPprrK3FGyGMn5uQEJVD7wNUZgOn2UZt+vrFLMLFAyqGB+YhkF5o0JH57hfUYuIxZ7so1rf5DQ2nDfdGA==\&quot;,\&quot;serviceName\&quot;:\&quot;Titanic Survivor Predictor (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{},\&quot;showOverwriteWarning\&quot;:true},{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/odata/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/0153ed4ecce44d999e7846d8f0e8102a\&quot;,\&quot;token\&quot;:\&quot;QR+dXhrglxsnO5WJ4/s0me85cwO+4WF7FcWVoUUSqFwzGyFCYbMIpzYfSaMwkNdNJGGavTDvVTlNbP1gv9Yh9A==\&quot;,\&quot;serviceName\&quot;:\&quot;Text Sentiment Analysis (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{\&quot;output1\&quot;:{\&quot;id\&quot;:\&quot;data!D1\&quot;,\&quot;includeHeaders\&quot;:true}},\&quot;showOverwriteWarning\&quot;:true,\&quot;inputBindingsAddresses\&quot;:{\&quot;input1\&quot;:{\&quot;bindingAddress\&quot;:\&quot;data!C1:C301\&quot;,\&quot;hasHeaders\&quot;:true}}}]&quot;"/>
+  </we:properties>
+  <we:bindings>
+    <we:binding id="UnnamedBinding_2_1630787825276" type="matrix" appref="{67A63C59-3B15-4C04-8A44-1860D39A7B51}"/>
+    <we:binding id="UnnamedBinding_3_1630787825313" type="matrix" appref="{61ACD7AD-D993-4529-9B49-0C23147E798B}"/>
+    <we:binding id="UnnamedBinding_4_1630787832380" type="matrix" appref="{EBCD8897-26C3-4FC6-8E72-BAFC2651AAD0}"/>
+    <we:binding id="data!D1:E301" type="matrix" appref="{9AEB3BD8-6443-4116-802E-09573FDEC82D}"/>
+  </we:bindings>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E434C7-3094-4F14-A308-A7F518F9B546}">
   <dimension ref="A1:A2"/>
@@ -1454,16 +1501,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -1473,2426 +1520,5153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.83984375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.26772567657463E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3">
+        <v>1.45407090894878E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.7051746438219197E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.9814991303899197E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6">
+        <v>0.98749154806137096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7">
+        <v>0.92130172252654996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="230.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.61075347225415E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="374.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9">
+        <v>3.0408946331590401E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10">
+        <v>2.3051120806485401E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11">
+        <v>0.90524989366531405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12">
+        <v>0.57314002513885498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13">
+        <v>0.855388224124908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.4218981854728899E-12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15">
+        <v>2.9675260186195401E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16">
+        <v>0.95389527082443204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17">
+        <v>9.5702409744262695E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18">
+        <v>6.5408791415393396E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7.8088560258038308E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20">
+        <v>1.1449322104454001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21">
+        <v>2.2366004996001699E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E22">
+        <v>5.7388566434383399E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>306</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.0643422404857299E-22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24">
+        <v>0.66110008955001798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25">
+        <v>3.4472223371267298E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.4015549538478602E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27">
+        <v>0.91321307420730602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E28">
+        <v>0.96953070163726796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>306</v>
+      </c>
+      <c r="E29">
+        <v>0.11339449882507301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30">
+        <v>0.49437719583511402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="374.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>307</v>
+      </c>
+      <c r="E31">
+        <v>0.93720185756683405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32">
+        <v>0.98531633615493797</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>308</v>
+      </c>
+      <c r="E33">
+        <v>0.524333715438843</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34">
+        <v>0.49093174934387201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E35">
+        <v>0.93356406688690197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>307</v>
+      </c>
+      <c r="E36">
+        <v>0.97718441486358598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37">
+        <v>6.5314643085002899E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>307</v>
+      </c>
+      <c r="E38">
+        <v>0.81859737634658802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" s="2">
+        <v>9.8163218353874998E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>306</v>
+      </c>
+      <c r="E40">
+        <v>0.10203268378973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>306</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4.3726054173021103E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>306</v>
+      </c>
+      <c r="E42">
+        <v>0.43026706576347401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43">
+        <v>1.8255617469549201E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" s="2">
+        <v>9.4338190592679904E-7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45">
+        <v>3.2411271240562201E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5.49975105457179E-8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>306</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5.5847191759994497E-8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>307</v>
+      </c>
+      <c r="E48">
+        <v>0.76985692977905296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>306</v>
+      </c>
+      <c r="E49">
+        <v>1.5124692581593999E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>306</v>
+      </c>
+      <c r="E50">
+        <v>0.216679036617279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="403.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>306</v>
+      </c>
+      <c r="E51" s="2">
+        <v>9.4865808932809193E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>306</v>
+      </c>
+      <c r="E52">
+        <v>8.9524790644645705E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>306</v>
+      </c>
+      <c r="E53">
+        <v>1.2640358880162199E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>307</v>
+      </c>
+      <c r="E54">
+        <v>0.91440129280090299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>306</v>
+      </c>
+      <c r="E55">
+        <v>7.2543513961136298E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>306</v>
+      </c>
+      <c r="E56">
+        <v>5.94344027340412E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2.2961039292113099E-7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>307</v>
+      </c>
+      <c r="E58">
+        <v>0.831781685352325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>306</v>
+      </c>
+      <c r="E59">
+        <v>7.5689584016799899E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E60">
+        <v>0.93984413146972701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>306</v>
+      </c>
+      <c r="E61">
+        <v>2.77408342808485E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="345.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>307</v>
+      </c>
+      <c r="E62">
+        <v>0.958179712295532</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63">
+        <v>0.99972856044769298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>307</v>
+      </c>
+      <c r="E64">
+        <v>0.76827937364578203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>306</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3.3520702686015797E-20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2</v>
-      </c>
-      <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>307</v>
+      </c>
+      <c r="E66">
+        <v>0.76243585348129295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>306</v>
+      </c>
+      <c r="E67">
+        <v>4.4566001743078197E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>306</v>
+      </c>
+      <c r="E68">
+        <v>0.419483512639999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>308</v>
+      </c>
+      <c r="E69">
+        <v>0.48416173458099399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>306</v>
+      </c>
+      <c r="E70">
+        <v>1.6465381486341401E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>306</v>
+      </c>
+      <c r="E71">
+        <v>0.31997641921043402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>306</v>
+      </c>
+      <c r="E72">
+        <v>9.5884047448635101E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" t="s">
+        <v>306</v>
+      </c>
+      <c r="E73">
+        <v>2.8807318303734099E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>306</v>
+      </c>
+      <c r="E74" s="2">
+        <v>4.1877934563672197E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>306</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2.42201432520961E-11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>306</v>
+      </c>
+      <c r="E76">
+        <v>5.0478690536692695E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="360" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" s="2">
+        <v>9.7784097306430299E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>306</v>
+      </c>
+      <c r="E78" s="2">
+        <v>9.4185949706115895E-8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>306</v>
+      </c>
+      <c r="E79">
+        <v>7.1767330169677707E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" t="s">
+        <v>306</v>
+      </c>
+      <c r="E80" s="2">
+        <v>4.4218086103462302E-33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>306</v>
+      </c>
+      <c r="E81">
+        <v>0.34792739152908297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
+        <v>306</v>
+      </c>
+      <c r="E82">
+        <v>2.0355643704533601E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" t="s">
+        <v>306</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1.18530402506978E-11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
+        <v>306</v>
+      </c>
+      <c r="E84" s="2">
+        <v>5.51488862412193E-19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" t="s">
+        <v>306</v>
+      </c>
+      <c r="E85">
+        <v>4.5527771115302998E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="331.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" t="s">
+        <v>306</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3.10618176145583E-13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" t="s">
+        <v>306</v>
+      </c>
+      <c r="E87">
+        <v>1.19456462562084E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" t="s">
+        <v>306</v>
+      </c>
+      <c r="E88">
+        <v>3.2488726079464E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" t="s">
+        <v>306</v>
+      </c>
+      <c r="E89">
+        <v>0.17636400461196899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2</v>
-      </c>
-      <c r="B90" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" t="s">
+        <v>307</v>
+      </c>
+      <c r="E90">
+        <v>0.88871699571609497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2</v>
-      </c>
-      <c r="B91" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" t="s">
+        <v>306</v>
+      </c>
+      <c r="E91">
+        <v>2.2881636396050498E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" t="s">
+        <v>307</v>
+      </c>
+      <c r="E92">
+        <v>0.77167379856109597</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" t="s">
+        <v>306</v>
+      </c>
+      <c r="E93">
+        <v>2.1358029916882502E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" t="s">
+        <v>306</v>
+      </c>
+      <c r="E94" s="2">
+        <v>6.4477263805873303E-11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2</v>
-      </c>
-      <c r="B95" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" t="s">
+        <v>307</v>
+      </c>
+      <c r="E95">
+        <v>0.94609516859054599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" t="s">
+        <v>306</v>
+      </c>
+      <c r="E96">
+        <v>8.7347924709320096E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" t="s">
+        <v>306</v>
+      </c>
+      <c r="E97" s="2">
+        <v>2.04221407784644E-7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2</v>
-      </c>
-      <c r="B98" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="360" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" t="s">
+        <v>307</v>
+      </c>
+      <c r="E98">
+        <v>0.90417450666427601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1</v>
-      </c>
-      <c r="B99" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D99" t="s">
+        <v>306</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2.6019806682597799E-6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" t="s">
+        <v>306</v>
+      </c>
+      <c r="E100" s="2">
+        <v>7.7853430411778404E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="B101" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="288" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D101" t="s">
+        <v>307</v>
+      </c>
+      <c r="E101">
+        <v>0.67798626422882102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" t="s">
+        <v>306</v>
+      </c>
+      <c r="E102">
+        <v>7.4517400935292201E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" t="s">
+        <v>306</v>
+      </c>
+      <c r="E103">
+        <v>5.2404112648218903E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" t="s">
+        <v>307</v>
+      </c>
+      <c r="E104">
+        <v>0.60394644737243697</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" t="s">
+        <v>306</v>
+      </c>
+      <c r="E105">
+        <v>6.75613759085536E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106" t="s">
+        <v>306</v>
+      </c>
+      <c r="E106">
+        <v>2.4157693609595299E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" t="s">
+        <v>307</v>
+      </c>
+      <c r="E107">
+        <v>0.82975101470947299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" t="s">
+        <v>306</v>
+      </c>
+      <c r="E108">
+        <v>2.15708296746016E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1</v>
-      </c>
-      <c r="B109" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D109" t="s">
+        <v>306</v>
+      </c>
+      <c r="E109">
+        <v>8.3133177831769007E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" t="s">
+        <v>306</v>
+      </c>
+      <c r="E110" s="2">
+        <v>2.2880451069795499E-5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1</v>
-      </c>
-      <c r="B111" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" t="s">
+        <v>306</v>
+      </c>
+      <c r="E111" s="2">
+        <v>6.5143201943840301E-9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1</v>
-      </c>
-      <c r="B112" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" t="s">
+        <v>307</v>
+      </c>
+      <c r="E112">
+        <v>0.95154947042465199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="B113" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" t="s">
+        <v>306</v>
+      </c>
+      <c r="E113">
+        <v>8.2651935517787899E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1</v>
-      </c>
-      <c r="B114" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" t="s">
+        <v>307</v>
+      </c>
+      <c r="E114">
+        <v>0.70964264869689897</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" t="s">
+        <v>306</v>
+      </c>
+      <c r="E115">
+        <v>0.228453814983368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="345.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D116" t="s">
+        <v>307</v>
+      </c>
+      <c r="E116">
+        <v>0.88417923450470004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="230.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" t="s">
+        <v>306</v>
+      </c>
+      <c r="E117" s="2">
+        <v>6.7643583179233194E-8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="B118" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118" t="s">
+        <v>306</v>
+      </c>
+      <c r="E118">
+        <v>3.07411793619394E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1</v>
-      </c>
-      <c r="B119" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" t="s">
+        <v>306</v>
+      </c>
+      <c r="E119">
+        <v>1.7489956691861201E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2</v>
-      </c>
-      <c r="B120" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" t="s">
+        <v>306</v>
+      </c>
+      <c r="E120">
+        <v>0.21755802631378199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>2</v>
-      </c>
-      <c r="B121" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" t="s">
+        <v>306</v>
+      </c>
+      <c r="E121">
+        <v>0.18738512694835699</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1</v>
-      </c>
-      <c r="B122" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D122" t="s">
+        <v>306</v>
+      </c>
+      <c r="E122">
+        <v>0.44902157783508301</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="288" x14ac:dyDescent="0.55000000000000004">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D123" t="s">
+        <v>306</v>
+      </c>
+      <c r="E123">
+        <v>1.5378086827695399E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D124" t="s">
+        <v>306</v>
+      </c>
+      <c r="E124">
+        <v>8.8770519942045194E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>2</v>
-      </c>
-      <c r="B125" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D125" t="s">
+        <v>307</v>
+      </c>
+      <c r="E125">
+        <v>0.65738153457641602</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D126" t="s">
+        <v>306</v>
+      </c>
+      <c r="E126" s="2">
+        <v>3.04184068227187E-5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>2</v>
-      </c>
-      <c r="B127" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D127" t="s">
+        <v>307</v>
+      </c>
+      <c r="E127">
+        <v>0.92488050460815396</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D128" t="s">
+        <v>306</v>
+      </c>
+      <c r="E128">
+        <v>7.3027350008487701E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D129" t="s">
+        <v>306</v>
+      </c>
+      <c r="E129">
+        <v>0.448704123497009</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>2</v>
-      </c>
-      <c r="B130" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D130" t="s">
+        <v>308</v>
+      </c>
+      <c r="E130">
+        <v>0.51973754167556796</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>2</v>
-      </c>
-      <c r="B131" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131" t="s">
+        <v>306</v>
+      </c>
+      <c r="E131">
+        <v>0.102071672677994</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1</v>
-      </c>
-      <c r="B132" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="388.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D132" t="s">
+        <v>306</v>
+      </c>
+      <c r="E132" s="2">
+        <v>3.9155727271644697E-11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="B133" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D133" t="s">
+        <v>306</v>
+      </c>
+      <c r="E133">
+        <v>1.4532237546518399E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1</v>
-      </c>
-      <c r="B134" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D134" t="s">
+        <v>306</v>
+      </c>
+      <c r="E134">
+        <v>9.3171112239360792E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>2</v>
-      </c>
-      <c r="B135" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D135" t="s">
+        <v>307</v>
+      </c>
+      <c r="E135">
+        <v>0.68636858463287398</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1</v>
-      </c>
-      <c r="B136" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D136" t="s">
+        <v>308</v>
+      </c>
+      <c r="E136">
+        <v>0.58256429433822599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1</v>
-      </c>
-      <c r="B137" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D137" t="s">
+        <v>307</v>
+      </c>
+      <c r="E137">
+        <v>0.908563733100891</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1</v>
-      </c>
-      <c r="B138" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D138" t="s">
+        <v>306</v>
+      </c>
+      <c r="E138" s="2">
+        <v>4.7395591536769603E-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1</v>
-      </c>
-      <c r="B139" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D139" t="s">
+        <v>306</v>
+      </c>
+      <c r="E139">
+        <v>1.05916908069048E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>2</v>
-      </c>
-      <c r="B140" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D140" t="s">
+        <v>306</v>
+      </c>
+      <c r="E140">
+        <v>4.7237057238817201E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1</v>
-      </c>
-      <c r="B141" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="374.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D141" t="s">
+        <v>306</v>
+      </c>
+      <c r="E141" s="2">
+        <v>4.3192376324441297E-5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1</v>
-      </c>
-      <c r="B142" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D142" t="s">
+        <v>308</v>
+      </c>
+      <c r="E142">
+        <v>0.50531750917434703</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1</v>
-      </c>
-      <c r="B143" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D143" t="s">
+        <v>306</v>
+      </c>
+      <c r="E143">
+        <v>0.31025892496108998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1</v>
-      </c>
-      <c r="B144" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D144" t="s">
+        <v>306</v>
+      </c>
+      <c r="E144">
+        <v>1.0858298046514401E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2</v>
-      </c>
-      <c r="B145" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="230.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D145" t="s">
+        <v>306</v>
+      </c>
+      <c r="E145">
+        <v>5.7029310846701297E-4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D146" t="s">
+        <v>306</v>
+      </c>
+      <c r="E146">
+        <v>7.5451880693435704E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1</v>
-      </c>
-      <c r="B147" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D147" t="s">
+        <v>306</v>
+      </c>
+      <c r="E147" s="2">
+        <v>3.7602498892397299E-9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1</v>
-      </c>
-      <c r="B148" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D148" t="s">
+        <v>306</v>
+      </c>
+      <c r="E148" s="2">
+        <v>7.8856025709228601E-8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1</v>
-      </c>
-      <c r="B149" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D149" t="s">
+        <v>306</v>
+      </c>
+      <c r="E149">
+        <v>2.7950858697295199E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>2</v>
-      </c>
-      <c r="B150" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D150" t="s">
+        <v>306</v>
+      </c>
+      <c r="E150">
+        <v>0.148488715291023</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1</v>
-      </c>
-      <c r="B151" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D151" t="s">
+        <v>306</v>
+      </c>
+      <c r="E151">
+        <v>2.5896987062878901E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1</v>
-      </c>
-      <c r="B152" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D152" t="s">
+        <v>306</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1.47176227368456E-12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1</v>
-      </c>
-      <c r="B153" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D153" t="s">
+        <v>306</v>
+      </c>
+      <c r="E153">
+        <v>1.27380527555943E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1</v>
-      </c>
-      <c r="B154" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D154" t="s">
+        <v>306</v>
+      </c>
+      <c r="E154">
+        <v>1.2909092474728801E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>2</v>
-      </c>
-      <c r="B155" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D155" t="s">
+        <v>306</v>
+      </c>
+      <c r="E155">
+        <v>2.1598365157842601E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1</v>
-      </c>
-      <c r="B156" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D156" t="s">
+        <v>306</v>
+      </c>
+      <c r="E156">
+        <v>1.52919590473175E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1</v>
-      </c>
-      <c r="B157" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D157" t="s">
+        <v>306</v>
+      </c>
+      <c r="E157">
+        <v>0.23065495491027799</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1</v>
-      </c>
-      <c r="B158" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D158" t="s">
+        <v>306</v>
+      </c>
+      <c r="E158">
+        <v>0.328291565179825</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1</v>
-      </c>
-      <c r="B159" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D159" t="s">
+        <v>306</v>
+      </c>
+      <c r="E159">
+        <v>0.17233231663703899</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1</v>
-      </c>
-      <c r="B160" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D160" t="s">
+        <v>306</v>
+      </c>
+      <c r="E160">
+        <v>0.19920335710048701</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1</v>
-      </c>
-      <c r="B161" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D161" t="s">
+        <v>307</v>
+      </c>
+      <c r="E161">
+        <v>0.69982147216796897</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1</v>
-      </c>
-      <c r="B162" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D162" t="s">
+        <v>306</v>
+      </c>
+      <c r="E162">
+        <v>6.1574678868055302E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>2</v>
-      </c>
-      <c r="B163" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D163" t="s">
+        <v>307</v>
+      </c>
+      <c r="E163">
+        <v>0.99542081356048595</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>2</v>
-      </c>
-      <c r="B164" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D164" t="s">
+        <v>306</v>
+      </c>
+      <c r="E164" s="2">
+        <v>5.46816552541435E-13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>2</v>
-      </c>
-      <c r="B165" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D165" t="s">
+        <v>308</v>
+      </c>
+      <c r="E165">
+        <v>0.57034033536911</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>2</v>
-      </c>
-      <c r="B166" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D166" t="s">
+        <v>307</v>
+      </c>
+      <c r="E166">
+        <v>0.88678139448165905</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1</v>
-      </c>
-      <c r="B167" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D167" t="s">
+        <v>306</v>
+      </c>
+      <c r="E167">
+        <v>1.68624066282064E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1</v>
-      </c>
-      <c r="B168" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D168" t="s">
+        <v>308</v>
+      </c>
+      <c r="E168">
+        <v>0.569996297359467</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="403.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D169" t="s">
+        <v>306</v>
+      </c>
+      <c r="E169">
+        <v>1.41348903998733E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1</v>
-      </c>
-      <c r="B170" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D170" t="s">
+        <v>306</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1.26938766698004E-5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1</v>
-      </c>
-      <c r="B171" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D171" t="s">
+        <v>308</v>
+      </c>
+      <c r="E171">
+        <v>0.599978268146515</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>2</v>
-      </c>
-      <c r="B172" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D172" t="s">
+        <v>306</v>
+      </c>
+      <c r="E172">
+        <v>4.7232985496521003E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1</v>
-      </c>
-      <c r="B173" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D173" t="s">
+        <v>306</v>
+      </c>
+      <c r="E173">
+        <v>0.30619168281555198</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1</v>
-      </c>
-      <c r="B174" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D174" t="s">
+        <v>306</v>
+      </c>
+      <c r="E174">
+        <v>1.58870476298034E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>2</v>
-      </c>
-      <c r="B175" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D175" t="s">
+        <v>306</v>
+      </c>
+      <c r="E175">
+        <v>0.20786541700363201</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1</v>
-      </c>
-      <c r="B176" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D176" t="s">
+        <v>306</v>
+      </c>
+      <c r="E176">
+        <v>6.2037613242864602E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>2</v>
-      </c>
-      <c r="B177" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D177" t="s">
+        <v>307</v>
+      </c>
+      <c r="E177">
+        <v>0.63476574420928999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1</v>
-      </c>
-      <c r="B178" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1.02970902915445E-8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>2</v>
-      </c>
-      <c r="B179" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D179" t="s">
+        <v>306</v>
+      </c>
+      <c r="E179">
+        <v>0.12041525542736101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>2</v>
-      </c>
-      <c r="B180" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D180" t="s">
+        <v>307</v>
+      </c>
+      <c r="E180">
+        <v>0.77926665544509899</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1</v>
-      </c>
-      <c r="B181" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D181" t="s">
+        <v>306</v>
+      </c>
+      <c r="E181">
+        <v>1.2913095997646501E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>2</v>
-      </c>
-      <c r="B182" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D182" t="s">
+        <v>306</v>
+      </c>
+      <c r="E182">
+        <v>0.16589874029159499</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1</v>
-      </c>
-      <c r="B183" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D183" t="s">
+        <v>306</v>
+      </c>
+      <c r="E183">
+        <v>0.25019818544387801</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1</v>
-      </c>
-      <c r="B184" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D184" t="s">
+        <v>307</v>
+      </c>
+      <c r="E184">
+        <v>0.77758306264877297</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1</v>
-      </c>
-      <c r="B185" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="360" x14ac:dyDescent="0.55000000000000004">
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D185" t="s">
+        <v>306</v>
+      </c>
+      <c r="E185">
+        <v>0.113893002271652</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>2</v>
-      </c>
-      <c r="B186" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" ht="388.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D186" t="s">
+        <v>306</v>
+      </c>
+      <c r="E186">
+        <v>0.36627417802810702</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>2</v>
-      </c>
-      <c r="B187" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D187" t="s">
+        <v>306</v>
+      </c>
+      <c r="E187">
+        <v>0.10226281732320799</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>2</v>
-      </c>
-      <c r="B188" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D188" t="s">
+        <v>306</v>
+      </c>
+      <c r="E188">
+        <v>9.8986234515905398E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D189" t="s">
+        <v>306</v>
+      </c>
+      <c r="E189" s="2">
+        <v>1.2190036480230801E-10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1</v>
-      </c>
-      <c r="B190" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D190" t="s">
+        <v>306</v>
+      </c>
+      <c r="E190" s="2">
+        <v>2.95893096335931E-6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>1</v>
-      </c>
-      <c r="B191" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D191" t="s">
+        <v>306</v>
+      </c>
+      <c r="E191" s="2">
+        <v>7.6183582677913398E-6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1</v>
-      </c>
-      <c r="B192" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D192" t="s">
+        <v>306</v>
+      </c>
+      <c r="E192">
+        <v>9.17866884265095E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1</v>
-      </c>
-      <c r="B193" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D193" t="s">
+        <v>306</v>
+      </c>
+      <c r="E193" s="2">
+        <v>1.20671966495433E-15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>2</v>
-      </c>
-      <c r="B194" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D194" t="s">
+        <v>306</v>
+      </c>
+      <c r="E194" s="2">
+        <v>4.6019275629777297E-13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1</v>
-      </c>
-      <c r="B195" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D195" t="s">
+        <v>306</v>
+      </c>
+      <c r="E195" s="2">
+        <v>5.0859586764317997E-8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>2</v>
-      </c>
-      <c r="B196" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D196" t="s">
+        <v>307</v>
+      </c>
+      <c r="E196">
+        <v>0.70543307065963701</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>2</v>
-      </c>
-      <c r="B197" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D197" t="s">
+        <v>307</v>
+      </c>
+      <c r="E197">
+        <v>0.91821897029876698</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>1</v>
-      </c>
-      <c r="B198" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D198" t="s">
+        <v>306</v>
+      </c>
+      <c r="E198">
+        <v>1.6146408161148401E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>2</v>
-      </c>
-      <c r="B199" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D199" t="s">
+        <v>306</v>
+      </c>
+      <c r="E199">
+        <v>0.435972720384598</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>2</v>
-      </c>
-      <c r="B200" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D200" t="s">
+        <v>307</v>
+      </c>
+      <c r="E200">
+        <v>0.69310104846954301</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>2</v>
-      </c>
-      <c r="B201" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D201" t="s">
+        <v>306</v>
+      </c>
+      <c r="E201">
+        <v>2.2314849775284498E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1</v>
-      </c>
-      <c r="B202" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D202" t="s">
+        <v>306</v>
+      </c>
+      <c r="E202" s="2">
+        <v>5.0639464461710297E-5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>2</v>
-      </c>
-      <c r="B203" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D203" t="s">
+        <v>306</v>
+      </c>
+      <c r="E203">
+        <v>5.9544857591390603E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1</v>
-      </c>
-      <c r="B204" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D204" t="s">
+        <v>306</v>
+      </c>
+      <c r="E204">
+        <v>0.128922089934349</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>1</v>
-      </c>
-      <c r="B205" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D205" t="s">
+        <v>306</v>
+      </c>
+      <c r="E205">
+        <v>2.6084415731020299E-4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>2</v>
-      </c>
-      <c r="B206" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="360" x14ac:dyDescent="0.55000000000000004">
+      <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D206" t="s">
+        <v>306</v>
+      </c>
+      <c r="E206">
+        <v>4.0141884237527799E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>1</v>
-      </c>
-      <c r="B207" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D207" t="s">
+        <v>306</v>
+      </c>
+      <c r="E207">
+        <v>2.23187802475877E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="B208" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D208" t="s">
+        <v>306</v>
+      </c>
+      <c r="E208" s="2">
+        <v>1.01195174462276E-9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1</v>
-      </c>
-      <c r="B209" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D209" t="s">
+        <v>306</v>
+      </c>
+      <c r="E209" s="2">
+        <v>2.3374726633440498E-12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1</v>
-      </c>
-      <c r="B210" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D210" t="s">
+        <v>306</v>
+      </c>
+      <c r="E210" s="2">
+        <v>2.4103623985638501E-8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>1</v>
-      </c>
-      <c r="B211" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D211" t="s">
+        <v>306</v>
+      </c>
+      <c r="E211">
+        <v>2.23851806367747E-4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1</v>
-      </c>
-      <c r="B212" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D212" t="s">
+        <v>306</v>
+      </c>
+      <c r="E212" s="2">
+        <v>2.27499203901971E-5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1</v>
-      </c>
-      <c r="B213" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D213" t="s">
+        <v>306</v>
+      </c>
+      <c r="E213" s="2">
+        <v>1.52471157921497E-9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1</v>
-      </c>
-      <c r="B214" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D214" t="s">
+        <v>306</v>
+      </c>
+      <c r="E214">
+        <v>9.6455216407775896E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>2</v>
-      </c>
-      <c r="B215" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" ht="403.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D215" t="s">
+        <v>307</v>
+      </c>
+      <c r="E215">
+        <v>0.98406881093978904</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D216" t="s">
+        <v>306</v>
+      </c>
+      <c r="E216" s="2">
+        <v>2.2528704448632202E-6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1</v>
-      </c>
-      <c r="B217" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" ht="403.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D217" t="s">
+        <v>306</v>
+      </c>
+      <c r="E217">
+        <v>5.2788428962230703E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1</v>
-      </c>
-      <c r="B218" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D218" t="s">
+        <v>306</v>
+      </c>
+      <c r="E218">
+        <v>7.4784678872674704E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>1</v>
-      </c>
-      <c r="B219" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D219" t="s">
+        <v>306</v>
+      </c>
+      <c r="E219" s="2">
+        <v>2.7854297305631402E-16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>1</v>
-      </c>
-      <c r="B220" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D220" t="s">
+        <v>306</v>
+      </c>
+      <c r="E220" s="2">
+        <v>4.7607900341972702E-5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1</v>
-      </c>
-      <c r="B221" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D221" t="s">
+        <v>306</v>
+      </c>
+      <c r="E221">
+        <v>4.3984106741845599E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1</v>
-      </c>
-      <c r="B222" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D222" t="s">
+        <v>307</v>
+      </c>
+      <c r="E222">
+        <v>0.66215115785598799</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>1</v>
-      </c>
-      <c r="B223" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D223" t="s">
+        <v>307</v>
+      </c>
+      <c r="E223">
+        <v>0.79846328496932995</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>1</v>
-      </c>
-      <c r="B224" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D224" t="s">
+        <v>306</v>
+      </c>
+      <c r="E224">
+        <v>0.14336775243282299</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1</v>
-      </c>
-      <c r="B225" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D225" t="s">
+        <v>308</v>
+      </c>
+      <c r="E225">
+        <v>0.57054662704467796</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1</v>
-      </c>
-      <c r="B226" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D226" t="s">
+        <v>306</v>
+      </c>
+      <c r="E226" s="2">
+        <v>4.9060866480488097E-9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1</v>
-      </c>
-      <c r="B227" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D227" t="s">
+        <v>306</v>
+      </c>
+      <c r="E227" s="2">
+        <v>4.5397605390462601E-6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1</v>
-      </c>
-      <c r="B228" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D228" t="s">
+        <v>306</v>
+      </c>
+      <c r="E228">
+        <v>0.40788409113884</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>2</v>
-      </c>
-      <c r="B229" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D229" t="s">
+        <v>306</v>
+      </c>
+      <c r="E229" s="2">
+        <v>4.6533005178045099E-14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1</v>
-      </c>
-      <c r="B230" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D230" t="s">
+        <v>307</v>
+      </c>
+      <c r="E230">
+        <v>0.93202883005142201</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1</v>
-      </c>
-      <c r="B231" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" ht="331.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D231" t="s">
+        <v>306</v>
+      </c>
+      <c r="E231" s="2">
+        <v>3.5683566323996301E-8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>2</v>
-      </c>
-      <c r="B232" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D232" t="s">
+        <v>306</v>
+      </c>
+      <c r="E232">
+        <v>2.2721529006958001E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>2</v>
-      </c>
-      <c r="B233" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" ht="345.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D233" t="s">
+        <v>306</v>
+      </c>
+      <c r="E233">
+        <v>0.27014791965484602</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>2</v>
-      </c>
-      <c r="B234" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D234" t="s">
+        <v>306</v>
+      </c>
+      <c r="E234">
+        <v>6.5365980844944705E-4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>1</v>
-      </c>
-      <c r="B235" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D235" t="s">
+        <v>306</v>
+      </c>
+      <c r="E235" s="2">
+        <v>2.24908490054077E-6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1</v>
-      </c>
-      <c r="B236" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" ht="345.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D236" t="s">
+        <v>306</v>
+      </c>
+      <c r="E236">
+        <v>0.13733205199241599</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>2</v>
-      </c>
-      <c r="B237" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D237" t="s">
+        <v>306</v>
+      </c>
+      <c r="E237">
+        <v>3.6354873329401002E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1</v>
-      </c>
-      <c r="B238" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D238" t="s">
+        <v>307</v>
+      </c>
+      <c r="E238">
+        <v>0.71549522876739502</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1</v>
-      </c>
-      <c r="B239" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D239" t="s">
+        <v>306</v>
+      </c>
+      <c r="E239">
+        <v>1.4072088524699201E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1</v>
-      </c>
-      <c r="B240" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D240" t="s">
+        <v>306</v>
+      </c>
+      <c r="E240">
+        <v>0.133347362279892</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1</v>
-      </c>
-      <c r="B241" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D241" t="s">
+        <v>306</v>
+      </c>
+      <c r="E241">
+        <v>0.43125984072685197</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1</v>
-      </c>
-      <c r="B242" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D242" t="s">
+        <v>306</v>
+      </c>
+      <c r="E242" s="2">
+        <v>6.6676562710199505E-5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>2</v>
-      </c>
-      <c r="B243" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D243" t="s">
+        <v>307</v>
+      </c>
+      <c r="E243">
+        <v>0.69839280843734697</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1</v>
-      </c>
-      <c r="B244" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D244" t="s">
+        <v>306</v>
+      </c>
+      <c r="E244">
+        <v>3.7688694894313798E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1</v>
-      </c>
-      <c r="B245" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D245" t="s">
+        <v>306</v>
+      </c>
+      <c r="E245" s="2">
+        <v>1.1590981507936199E-9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1</v>
-      </c>
-      <c r="B246" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D246" t="s">
+        <v>306</v>
+      </c>
+      <c r="E246">
+        <v>0.31692907214164701</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1</v>
-      </c>
-      <c r="B247" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D247" t="s">
+        <v>306</v>
+      </c>
+      <c r="E247" s="2">
+        <v>6.6350254179781099E-9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1</v>
-      </c>
-      <c r="B248" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D248" t="s">
+        <v>306</v>
+      </c>
+      <c r="E248">
+        <v>0.271749317646027</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1</v>
-      </c>
-      <c r="B249" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D249" t="s">
+        <v>306</v>
+      </c>
+      <c r="E249">
+        <v>0.25582280755043002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1</v>
-      </c>
-      <c r="B250" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D250" t="s">
+        <v>307</v>
+      </c>
+      <c r="E250">
+        <v>0.80091965198516801</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>2</v>
-      </c>
-      <c r="B251" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B251">
+        <v>2</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D251" t="s">
+        <v>307</v>
+      </c>
+      <c r="E251">
+        <v>0.81700599193572998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1</v>
-      </c>
-      <c r="B252" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D252" t="s">
+        <v>306</v>
+      </c>
+      <c r="E252" s="2">
+        <v>1.24697071441915E-5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>2</v>
-      </c>
-      <c r="B253" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D253" t="s">
+        <v>306</v>
+      </c>
+      <c r="E253">
+        <v>6.44692108035088E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1</v>
-      </c>
-      <c r="B254" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D254" t="s">
+        <v>307</v>
+      </c>
+      <c r="E254">
+        <v>0.65531587600707997</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1</v>
-      </c>
-      <c r="B255" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D255" t="s">
+        <v>306</v>
+      </c>
+      <c r="E255">
+        <v>0.14098742604255701</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1</v>
-      </c>
-      <c r="B256" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D256" t="s">
+        <v>306</v>
+      </c>
+      <c r="E256">
+        <v>0.15630383789539301</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1</v>
-      </c>
-      <c r="B257" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D257" t="s">
+        <v>306</v>
+      </c>
+      <c r="E257" s="2">
+        <v>2.80800094486535E-20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>2</v>
-      </c>
-      <c r="B258" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D258" t="s">
+        <v>306</v>
+      </c>
+      <c r="E258">
+        <v>0.325995594263077</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>1</v>
-      </c>
-      <c r="B259" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D259" t="s">
+        <v>306</v>
+      </c>
+      <c r="E259">
+        <v>0.300460815429688</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>1</v>
-      </c>
-      <c r="B260" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D260" t="s">
+        <v>306</v>
+      </c>
+      <c r="E260" s="2">
+        <v>5.9838927108910803E-17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>1</v>
-      </c>
-      <c r="B261" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D261" t="s">
+        <v>306</v>
+      </c>
+      <c r="E261" s="2">
+        <v>1.11091048893286E-6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>1</v>
-      </c>
-      <c r="B262" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" ht="403.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D262" t="s">
+        <v>306</v>
+      </c>
+      <c r="E262" s="2">
+        <v>4.9795671058783203E-11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>2</v>
-      </c>
-      <c r="B263" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D263" t="s">
+        <v>306</v>
+      </c>
+      <c r="E263">
+        <v>6.3574954867363004E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>2</v>
-      </c>
-      <c r="B264" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D264" t="s">
+        <v>306</v>
+      </c>
+      <c r="E264">
+        <v>9.6804799977690003E-4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>1</v>
-      </c>
-      <c r="B265" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D265" t="s">
+        <v>306</v>
+      </c>
+      <c r="E265">
+        <v>2.7586482465267199E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>1</v>
-      </c>
-      <c r="B266" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D266" t="s">
+        <v>306</v>
+      </c>
+      <c r="E266">
+        <v>4.3722549453377698E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>1</v>
-      </c>
-      <c r="B267" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" ht="345.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D267" t="s">
+        <v>306</v>
+      </c>
+      <c r="E267" s="2">
+        <v>1.9735439309442898E-6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>1</v>
-      </c>
-      <c r="B268" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D268" t="s">
+        <v>306</v>
+      </c>
+      <c r="E268">
+        <v>1.0344987735152199E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>2</v>
-      </c>
-      <c r="B269" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D269" t="s">
+        <v>306</v>
+      </c>
+      <c r="E269" s="2">
+        <v>9.0005260062753206E-6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>1</v>
-      </c>
-      <c r="B270" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D270" t="s">
+        <v>306</v>
+      </c>
+      <c r="E270">
+        <v>2.20843372517265E-4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>1</v>
-      </c>
-      <c r="B271" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D271" t="s">
+        <v>306</v>
+      </c>
+      <c r="E271">
+        <v>4.6510002575814698E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>1</v>
-      </c>
-      <c r="B272" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D272" t="s">
+        <v>306</v>
+      </c>
+      <c r="E272">
+        <v>0.113618664443493</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>1</v>
-      </c>
-      <c r="B273" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D273" t="s">
+        <v>306</v>
+      </c>
+      <c r="E273">
+        <v>1.22821684926748E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>1</v>
-      </c>
-      <c r="B274" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D274" t="s">
+        <v>306</v>
+      </c>
+      <c r="E274">
+        <v>1.850301399827E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>2</v>
-      </c>
-      <c r="B275" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D275" t="s">
+        <v>306</v>
+      </c>
+      <c r="E275" s="2">
+        <v>5.9136327763553702E-5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>2</v>
-      </c>
-      <c r="B276" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" ht="288" x14ac:dyDescent="0.55000000000000004">
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D276" t="s">
+        <v>306</v>
+      </c>
+      <c r="E276">
+        <v>3.3030953258276E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>2</v>
-      </c>
-      <c r="B277" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" ht="360" x14ac:dyDescent="0.55000000000000004">
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D277" t="s">
+        <v>306</v>
+      </c>
+      <c r="E277">
+        <v>6.4048729836940793E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>1</v>
-      </c>
-      <c r="B278" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D278" t="s">
+        <v>306</v>
+      </c>
+      <c r="E278" s="2">
+        <v>5.4627446388622005E-7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>1</v>
-      </c>
-      <c r="B279" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" ht="331.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D279" t="s">
+        <v>306</v>
+      </c>
+      <c r="E279" s="2">
+        <v>3.1047783011217702E-8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>2</v>
-      </c>
-      <c r="B280" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D280" t="s">
+        <v>306</v>
+      </c>
+      <c r="E280">
+        <v>1.12816486507654E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>1</v>
-      </c>
-      <c r="B281" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D281" t="s">
+        <v>306</v>
+      </c>
+      <c r="E281">
+        <v>1.09734907746315E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>2</v>
-      </c>
-      <c r="B282" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D282" t="s">
+        <v>307</v>
+      </c>
+      <c r="E282">
+        <v>0.98658299446106001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>1</v>
-      </c>
-      <c r="B283" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" ht="230.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D283" t="s">
+        <v>306</v>
+      </c>
+      <c r="E283">
+        <v>7.5678434222936604E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>1</v>
-      </c>
-      <c r="B284" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D284" t="s">
+        <v>306</v>
+      </c>
+      <c r="E284" s="2">
+        <v>4.11757246183697E-5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>2</v>
-      </c>
-      <c r="B285" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" ht="331.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D285" t="s">
+        <v>306</v>
+      </c>
+      <c r="E285">
+        <v>1.2262347154319299E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>1</v>
-      </c>
-      <c r="B286" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D286" t="s">
+        <v>306</v>
+      </c>
+      <c r="E286" s="2">
+        <v>2.7353773930372001E-6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>2</v>
-      </c>
-      <c r="B287" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D287" t="s">
+        <v>306</v>
+      </c>
+      <c r="E287">
+        <v>5.33422164153308E-4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>2</v>
-      </c>
-      <c r="B288" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" ht="316.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D288" t="s">
+        <v>306</v>
+      </c>
+      <c r="E288">
+        <v>0.143546968698502</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>2</v>
-      </c>
-      <c r="B289" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" ht="259.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D289" t="s">
+        <v>306</v>
+      </c>
+      <c r="E289">
+        <v>9.86877712421119E-4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>2</v>
-      </c>
-      <c r="B290" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D290" t="s">
+        <v>306</v>
+      </c>
+      <c r="E290">
+        <v>0.40259924530982999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>1</v>
-      </c>
-      <c r="B291" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D291" t="s">
+        <v>307</v>
+      </c>
+      <c r="E291">
+        <v>0.81022590398788497</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>1</v>
-      </c>
-      <c r="B292" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D292" t="s">
+        <v>306</v>
+      </c>
+      <c r="E292" s="2">
+        <v>5.9593849854877598E-9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>1</v>
-      </c>
-      <c r="B293" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D293" t="s">
+        <v>306</v>
+      </c>
+      <c r="E293">
+        <v>0.36978107690811202</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>1</v>
-      </c>
-      <c r="B294" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D294" t="s">
+        <v>306</v>
+      </c>
+      <c r="E294">
+        <v>0.332304626703262</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>2</v>
-      </c>
-      <c r="B295" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D295" t="s">
+        <v>307</v>
+      </c>
+      <c r="E295">
+        <v>0.89433610439300504</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>2</v>
-      </c>
-      <c r="B296" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D296" t="s">
+        <v>307</v>
+      </c>
+      <c r="E296">
+        <v>0.89119046926498402</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>1</v>
-      </c>
-      <c r="B297" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D297" t="s">
+        <v>306</v>
+      </c>
+      <c r="E297">
+        <v>0.17245398461818701</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>1</v>
-      </c>
-      <c r="B298" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D298" t="s">
+        <v>307</v>
+      </c>
+      <c r="E298">
+        <v>0.85201668739318803</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>1</v>
-      </c>
-      <c r="B299" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D299" t="s">
+        <v>306</v>
+      </c>
+      <c r="E299" s="2">
+        <v>1.69742743310053E-5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>1</v>
-      </c>
-      <c r="B300" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" ht="388.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D300" t="s">
+        <v>306</v>
+      </c>
+      <c r="E300">
+        <v>5.1753981970250598E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>2</v>
-      </c>
-      <c r="B301" s="1" t="s">
         <v>300</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D301" t="s">
+        <v>306</v>
+      </c>
+      <c r="E301">
+        <v>1.0551869636401499E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{67A63C59-3B15-4C04-8A44-1860D39A7B51}">
+          <xm:f>data!D1</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{61ACD7AD-D993-4529-9B49-0C23147E798B}">
+          <xm:f>data!D1</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{EBCD8897-26C3-4FC6-8E72-BAFC2651AAD0}">
+          <xm:f>data!$C$1:$C$301</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{9AEB3BD8-6443-4116-802E-09573FDEC82D}">
+          <xm:f>data!D1:E301</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/datasets/sentiment.xlsx
+++ b/datasets/sentiment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\aina-foundations-of-analytics\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\aina-foundations-of-analytics\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CD3D28-17E7-495E-9695-C1A627618F40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3113BE31-15F2-4772-A26D-023D74E862D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>Unfortunately, the frustration of being Dr. Goldberg's patient is a repeat of the experience I've had with so many other doctors in NYC -- good doctor, terrible staff.  It seems that his staff simply never answers the phone.  It usually takes 2 hours of repeated calling to get an answer.  Who has time for that or wants to deal with it?  I have run into this problem with many other doctors and I just don't get it.  You have office workers, you have patients with medical needs, why isn't anyone answering the phone?  It's incomprehensible and not work the aggravation.  It's with regret that I feel that I have to give Dr. Goldberg 2 stars.</t>
   </si>
@@ -947,21 +947,6 @@
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>Sentiment</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>neutral</t>
   </si>
   <si>
     <t>Review</t>
@@ -1000,12 +985,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1501,14 +1485,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -1520,18 +1504,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>303</v>
       </c>
@@ -1539,16 +1523,10 @@
         <v>302</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D1" t="s">
         <v>304</v>
       </c>
-      <c r="E1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1558,14 +1536,8 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2.26772567657463E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1575,14 +1547,8 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3">
-        <v>1.45407090894878E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1592,14 +1558,8 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5.7051746438219197E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1609,14 +1569,8 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3.9814991303899197E-9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1626,14 +1580,8 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6">
-        <v>0.98749154806137096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1643,14 +1591,8 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7">
-        <v>0.92130172252654996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1660,14 +1602,8 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.61075347225415E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" ht="230.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1677,14 +1613,8 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E9">
-        <v>3.0408946331590401E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" ht="374.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1694,14 +1624,8 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10">
-        <v>2.3051120806485401E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1711,14 +1635,8 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>307</v>
-      </c>
-      <c r="E11">
-        <v>0.90524989366531405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1728,14 +1646,8 @@
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>308</v>
-      </c>
-      <c r="E12">
-        <v>0.57314002513885498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1745,14 +1657,8 @@
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>307</v>
-      </c>
-      <c r="E13">
-        <v>0.855388224124908</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1762,14 +1668,8 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>306</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2.4218981854728899E-12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1779,14 +1679,8 @@
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E15">
-        <v>2.9675260186195401E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1796,14 +1690,8 @@
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>307</v>
-      </c>
-      <c r="E16">
-        <v>0.95389527082443204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1813,14 +1701,8 @@
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>306</v>
-      </c>
-      <c r="E17">
-        <v>9.5702409744262695E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1830,14 +1712,8 @@
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
-        <v>306</v>
-      </c>
-      <c r="E18">
-        <v>6.5408791415393396E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1847,14 +1723,8 @@
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
-        <v>306</v>
-      </c>
-      <c r="E19" s="2">
-        <v>7.8088560258038308E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1864,14 +1734,8 @@
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
-        <v>306</v>
-      </c>
-      <c r="E20">
-        <v>1.1449322104454001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1881,14 +1745,8 @@
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
-        <v>306</v>
-      </c>
-      <c r="E21">
-        <v>2.2366004996001699E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1898,14 +1756,8 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
-        <v>306</v>
-      </c>
-      <c r="E22">
-        <v>5.7388566434383399E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1915,14 +1767,8 @@
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1.0643422404857299E-22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1932,14 +1778,8 @@
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
-        <v>307</v>
-      </c>
-      <c r="E24">
-        <v>0.66110008955001798</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1949,14 +1789,8 @@
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
-        <v>306</v>
-      </c>
-      <c r="E25">
-        <v>3.4472223371267298E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1966,14 +1800,8 @@
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
-        <v>306</v>
-      </c>
-      <c r="E26" s="2">
-        <v>4.4015549538478602E-10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1983,14 +1811,8 @@
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
-        <v>307</v>
-      </c>
-      <c r="E27">
-        <v>0.91321307420730602</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2000,14 +1822,8 @@
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
-        <v>307</v>
-      </c>
-      <c r="E28">
-        <v>0.96953070163726796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2017,14 +1833,8 @@
       <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>306</v>
-      </c>
-      <c r="E29">
-        <v>0.11339449882507301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2034,14 +1844,8 @@
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
-        <v>308</v>
-      </c>
-      <c r="E30">
-        <v>0.49437719583511402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2051,14 +1855,8 @@
       <c r="C31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D31" t="s">
-        <v>307</v>
-      </c>
-      <c r="E31">
-        <v>0.93720185756683405</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" ht="374.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2068,14 +1866,8 @@
       <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
-        <v>307</v>
-      </c>
-      <c r="E32">
-        <v>0.98531633615493797</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2085,14 +1877,8 @@
       <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D33" t="s">
-        <v>308</v>
-      </c>
-      <c r="E33">
-        <v>0.524333715438843</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2102,14 +1888,8 @@
       <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D34" t="s">
-        <v>308</v>
-      </c>
-      <c r="E34">
-        <v>0.49093174934387201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2119,14 +1899,8 @@
       <c r="C35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D35" t="s">
-        <v>307</v>
-      </c>
-      <c r="E35">
-        <v>0.93356406688690197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2136,14 +1910,8 @@
       <c r="C36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D36" t="s">
-        <v>307</v>
-      </c>
-      <c r="E36">
-        <v>0.97718441486358598</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2153,14 +1921,8 @@
       <c r="C37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D37" t="s">
-        <v>306</v>
-      </c>
-      <c r="E37">
-        <v>6.5314643085002899E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2170,14 +1932,8 @@
       <c r="C38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D38" t="s">
-        <v>307</v>
-      </c>
-      <c r="E38">
-        <v>0.81859737634658802</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2187,14 +1943,8 @@
       <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D39" t="s">
-        <v>306</v>
-      </c>
-      <c r="E39" s="2">
-        <v>9.8163218353874998E-6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2204,14 +1954,8 @@
       <c r="C40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D40" t="s">
-        <v>306</v>
-      </c>
-      <c r="E40">
-        <v>0.10203268378973</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2221,14 +1965,8 @@
       <c r="C41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D41" t="s">
-        <v>306</v>
-      </c>
-      <c r="E41" s="2">
-        <v>4.3726054173021103E-6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2238,14 +1976,8 @@
       <c r="C42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D42" t="s">
-        <v>306</v>
-      </c>
-      <c r="E42">
-        <v>0.43026706576347401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2255,14 +1987,8 @@
       <c r="C43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D43" t="s">
-        <v>306</v>
-      </c>
-      <c r="E43">
-        <v>1.8255617469549201E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2272,14 +1998,8 @@
       <c r="C44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D44" t="s">
-        <v>306</v>
-      </c>
-      <c r="E44" s="2">
-        <v>9.4338190592679904E-7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2289,14 +2009,8 @@
       <c r="C45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D45" t="s">
-        <v>306</v>
-      </c>
-      <c r="E45">
-        <v>3.2411271240562201E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2306,14 +2020,8 @@
       <c r="C46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D46" t="s">
-        <v>306</v>
-      </c>
-      <c r="E46" s="2">
-        <v>5.49975105457179E-8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2323,14 +2031,8 @@
       <c r="C47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D47" t="s">
-        <v>306</v>
-      </c>
-      <c r="E47" s="2">
-        <v>5.5847191759994497E-8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2340,14 +2042,8 @@
       <c r="C48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D48" t="s">
-        <v>307</v>
-      </c>
-      <c r="E48">
-        <v>0.76985692977905296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2357,14 +2053,8 @@
       <c r="C49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D49" t="s">
-        <v>306</v>
-      </c>
-      <c r="E49">
-        <v>1.5124692581593999E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2374,14 +2064,8 @@
       <c r="C50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D50" t="s">
-        <v>306</v>
-      </c>
-      <c r="E50">
-        <v>0.216679036617279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2391,14 +2075,8 @@
       <c r="C51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D51" t="s">
-        <v>306</v>
-      </c>
-      <c r="E51" s="2">
-        <v>9.4865808932809193E-6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" ht="403.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2408,14 +2086,8 @@
       <c r="C52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D52" t="s">
-        <v>306</v>
-      </c>
-      <c r="E52">
-        <v>8.9524790644645705E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2425,14 +2097,8 @@
       <c r="C53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D53" t="s">
-        <v>306</v>
-      </c>
-      <c r="E53">
-        <v>1.2640358880162199E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2442,14 +2108,8 @@
       <c r="C54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D54" t="s">
-        <v>307</v>
-      </c>
-      <c r="E54">
-        <v>0.91440129280090299</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2459,14 +2119,8 @@
       <c r="C55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D55" t="s">
-        <v>306</v>
-      </c>
-      <c r="E55">
-        <v>7.2543513961136298E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2476,14 +2130,8 @@
       <c r="C56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D56" t="s">
-        <v>306</v>
-      </c>
-      <c r="E56">
-        <v>5.94344027340412E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2493,14 +2141,8 @@
       <c r="C57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E57" s="2">
-        <v>2.2961039292113099E-7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2510,14 +2152,8 @@
       <c r="C58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D58" t="s">
-        <v>307</v>
-      </c>
-      <c r="E58">
-        <v>0.831781685352325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2527,14 +2163,8 @@
       <c r="C59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D59" t="s">
-        <v>306</v>
-      </c>
-      <c r="E59">
-        <v>7.5689584016799899E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2544,14 +2174,8 @@
       <c r="C60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D60" t="s">
-        <v>307</v>
-      </c>
-      <c r="E60">
-        <v>0.93984413146972701</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2561,14 +2185,8 @@
       <c r="C61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D61" t="s">
-        <v>306</v>
-      </c>
-      <c r="E61">
-        <v>2.77408342808485E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2578,14 +2196,8 @@
       <c r="C62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D62" t="s">
-        <v>307</v>
-      </c>
-      <c r="E62">
-        <v>0.958179712295532</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2595,14 +2207,8 @@
       <c r="C63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D63" t="s">
-        <v>307</v>
-      </c>
-      <c r="E63">
-        <v>0.99972856044769298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2612,14 +2218,8 @@
       <c r="C64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D64" t="s">
-        <v>307</v>
-      </c>
-      <c r="E64">
-        <v>0.76827937364578203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2629,14 +2229,8 @@
       <c r="C65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D65" t="s">
-        <v>306</v>
-      </c>
-      <c r="E65" s="2">
-        <v>3.3520702686015797E-20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2646,14 +2240,8 @@
       <c r="C66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D66" t="s">
-        <v>307</v>
-      </c>
-      <c r="E66">
-        <v>0.76243585348129295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2663,14 +2251,8 @@
       <c r="C67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D67" t="s">
-        <v>306</v>
-      </c>
-      <c r="E67">
-        <v>4.4566001743078197E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2680,14 +2262,8 @@
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D68" t="s">
-        <v>306</v>
-      </c>
-      <c r="E68">
-        <v>0.419483512639999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2697,14 +2273,8 @@
       <c r="C69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D69" t="s">
-        <v>308</v>
-      </c>
-      <c r="E69">
-        <v>0.48416173458099399</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2714,14 +2284,8 @@
       <c r="C70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D70" t="s">
-        <v>306</v>
-      </c>
-      <c r="E70">
-        <v>1.6465381486341401E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2731,14 +2295,8 @@
       <c r="C71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D71" t="s">
-        <v>306</v>
-      </c>
-      <c r="E71">
-        <v>0.31997641921043402</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2748,14 +2306,8 @@
       <c r="C72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D72" t="s">
-        <v>306</v>
-      </c>
-      <c r="E72">
-        <v>9.5884047448635101E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2765,14 +2317,8 @@
       <c r="C73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D73" t="s">
-        <v>306</v>
-      </c>
-      <c r="E73">
-        <v>2.8807318303734099E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2782,14 +2328,8 @@
       <c r="C74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D74" t="s">
-        <v>306</v>
-      </c>
-      <c r="E74" s="2">
-        <v>4.1877934563672197E-5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2799,14 +2339,8 @@
       <c r="C75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D75" t="s">
-        <v>306</v>
-      </c>
-      <c r="E75" s="2">
-        <v>2.42201432520961E-11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2816,14 +2350,8 @@
       <c r="C76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D76" t="s">
-        <v>306</v>
-      </c>
-      <c r="E76">
-        <v>5.0478690536692695E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2833,14 +2361,8 @@
       <c r="C77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D77" t="s">
-        <v>306</v>
-      </c>
-      <c r="E77" s="2">
-        <v>9.7784097306430299E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" ht="360" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2850,14 +2372,8 @@
       <c r="C78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D78" t="s">
-        <v>306</v>
-      </c>
-      <c r="E78" s="2">
-        <v>9.4185949706115895E-8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2867,14 +2383,8 @@
       <c r="C79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D79" t="s">
-        <v>306</v>
-      </c>
-      <c r="E79">
-        <v>7.1767330169677707E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2884,14 +2394,8 @@
       <c r="C80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D80" t="s">
-        <v>306</v>
-      </c>
-      <c r="E80" s="2">
-        <v>4.4218086103462302E-33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2901,14 +2405,8 @@
       <c r="C81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D81" t="s">
-        <v>306</v>
-      </c>
-      <c r="E81">
-        <v>0.34792739152908297</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2918,14 +2416,8 @@
       <c r="C82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D82" t="s">
-        <v>306</v>
-      </c>
-      <c r="E82">
-        <v>2.0355643704533601E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2935,14 +2427,8 @@
       <c r="C83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D83" t="s">
-        <v>306</v>
-      </c>
-      <c r="E83" s="2">
-        <v>1.18530402506978E-11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2952,14 +2438,8 @@
       <c r="C84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D84" t="s">
-        <v>306</v>
-      </c>
-      <c r="E84" s="2">
-        <v>5.51488862412193E-19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2969,14 +2449,8 @@
       <c r="C85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D85" t="s">
-        <v>306</v>
-      </c>
-      <c r="E85">
-        <v>4.5527771115302998E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2986,14 +2460,8 @@
       <c r="C86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D86" t="s">
-        <v>306</v>
-      </c>
-      <c r="E86" s="2">
-        <v>3.10618176145583E-13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" ht="331.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3003,14 +2471,8 @@
       <c r="C87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D87" t="s">
-        <v>306</v>
-      </c>
-      <c r="E87">
-        <v>1.19456462562084E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3020,14 +2482,8 @@
       <c r="C88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D88" t="s">
-        <v>306</v>
-      </c>
-      <c r="E88">
-        <v>3.2488726079464E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3037,14 +2493,8 @@
       <c r="C89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D89" t="s">
-        <v>306</v>
-      </c>
-      <c r="E89">
-        <v>0.17636400461196899</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3054,14 +2504,8 @@
       <c r="C90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D90" t="s">
-        <v>307</v>
-      </c>
-      <c r="E90">
-        <v>0.88871699571609497</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3071,14 +2515,8 @@
       <c r="C91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D91" t="s">
-        <v>306</v>
-      </c>
-      <c r="E91">
-        <v>2.2881636396050498E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3088,14 +2526,8 @@
       <c r="C92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D92" t="s">
-        <v>307</v>
-      </c>
-      <c r="E92">
-        <v>0.77167379856109597</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3105,14 +2537,8 @@
       <c r="C93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D93" t="s">
-        <v>306</v>
-      </c>
-      <c r="E93">
-        <v>2.1358029916882502E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3122,14 +2548,8 @@
       <c r="C94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D94" t="s">
-        <v>306</v>
-      </c>
-      <c r="E94" s="2">
-        <v>6.4477263805873303E-11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3139,14 +2559,8 @@
       <c r="C95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D95" t="s">
-        <v>307</v>
-      </c>
-      <c r="E95">
-        <v>0.94609516859054599</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3156,14 +2570,8 @@
       <c r="C96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D96" t="s">
-        <v>306</v>
-      </c>
-      <c r="E96">
-        <v>8.7347924709320096E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3173,14 +2581,8 @@
       <c r="C97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D97" t="s">
-        <v>306</v>
-      </c>
-      <c r="E97" s="2">
-        <v>2.04221407784644E-7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3190,14 +2592,8 @@
       <c r="C98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D98" t="s">
-        <v>307</v>
-      </c>
-      <c r="E98">
-        <v>0.90417450666427601</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" ht="360" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3207,14 +2603,8 @@
       <c r="C99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D99" t="s">
-        <v>306</v>
-      </c>
-      <c r="E99" s="2">
-        <v>2.6019806682597799E-6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3224,14 +2614,8 @@
       <c r="C100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D100" t="s">
-        <v>306</v>
-      </c>
-      <c r="E100" s="2">
-        <v>7.7853430411778404E-5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3241,14 +2625,8 @@
       <c r="C101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D101" t="s">
-        <v>307</v>
-      </c>
-      <c r="E101">
-        <v>0.67798626422882102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" ht="288" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3258,14 +2636,8 @@
       <c r="C102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D102" t="s">
-        <v>306</v>
-      </c>
-      <c r="E102">
-        <v>7.4517400935292201E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3275,14 +2647,8 @@
       <c r="C103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D103" t="s">
-        <v>306</v>
-      </c>
-      <c r="E103">
-        <v>5.2404112648218903E-4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3292,14 +2658,8 @@
       <c r="C104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D104" t="s">
-        <v>307</v>
-      </c>
-      <c r="E104">
-        <v>0.60394644737243697</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3309,14 +2669,8 @@
       <c r="C105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D105" t="s">
-        <v>306</v>
-      </c>
-      <c r="E105">
-        <v>6.75613759085536E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3326,14 +2680,8 @@
       <c r="C106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D106" t="s">
-        <v>306</v>
-      </c>
-      <c r="E106">
-        <v>2.4157693609595299E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:3" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3343,14 +2691,8 @@
       <c r="C107" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D107" t="s">
-        <v>307</v>
-      </c>
-      <c r="E107">
-        <v>0.82975101470947299</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3360,14 +2702,8 @@
       <c r="C108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D108" t="s">
-        <v>306</v>
-      </c>
-      <c r="E108">
-        <v>2.15708296746016E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3377,14 +2713,8 @@
       <c r="C109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D109" t="s">
-        <v>306</v>
-      </c>
-      <c r="E109">
-        <v>8.3133177831769007E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3394,14 +2724,8 @@
       <c r="C110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D110" t="s">
-        <v>306</v>
-      </c>
-      <c r="E110" s="2">
-        <v>2.2880451069795499E-5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3411,14 +2735,8 @@
       <c r="C111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D111" t="s">
-        <v>306</v>
-      </c>
-      <c r="E111" s="2">
-        <v>6.5143201943840301E-9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3428,14 +2746,8 @@
       <c r="C112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D112" t="s">
-        <v>307</v>
-      </c>
-      <c r="E112">
-        <v>0.95154947042465199</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3445,14 +2757,8 @@
       <c r="C113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D113" t="s">
-        <v>306</v>
-      </c>
-      <c r="E113">
-        <v>8.2651935517787899E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3462,14 +2768,8 @@
       <c r="C114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D114" t="s">
-        <v>307</v>
-      </c>
-      <c r="E114">
-        <v>0.70964264869689897</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3479,14 +2779,8 @@
       <c r="C115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D115" t="s">
-        <v>306</v>
-      </c>
-      <c r="E115">
-        <v>0.228453814983368</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3496,14 +2790,8 @@
       <c r="C116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D116" t="s">
-        <v>307</v>
-      </c>
-      <c r="E116">
-        <v>0.88417923450470004</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:3" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3513,14 +2801,8 @@
       <c r="C117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D117" t="s">
-        <v>306</v>
-      </c>
-      <c r="E117" s="2">
-        <v>6.7643583179233194E-8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" ht="230.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3530,14 +2812,8 @@
       <c r="C118" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D118" t="s">
-        <v>306</v>
-      </c>
-      <c r="E118">
-        <v>3.07411793619394E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3547,14 +2823,8 @@
       <c r="C119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D119" t="s">
-        <v>306</v>
-      </c>
-      <c r="E119">
-        <v>1.7489956691861201E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3564,14 +2834,8 @@
       <c r="C120" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D120" t="s">
-        <v>306</v>
-      </c>
-      <c r="E120">
-        <v>0.21755802631378199</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3581,14 +2845,8 @@
       <c r="C121" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D121" t="s">
-        <v>306</v>
-      </c>
-      <c r="E121">
-        <v>0.18738512694835699</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3598,14 +2856,8 @@
       <c r="C122" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D122" t="s">
-        <v>306</v>
-      </c>
-      <c r="E122">
-        <v>0.44902157783508301</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3615,14 +2867,8 @@
       <c r="C123" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D123" t="s">
-        <v>306</v>
-      </c>
-      <c r="E123">
-        <v>1.5378086827695399E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:3" ht="288" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3632,14 +2878,8 @@
       <c r="C124" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D124" t="s">
-        <v>306</v>
-      </c>
-      <c r="E124">
-        <v>8.8770519942045194E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:3" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3649,14 +2889,8 @@
       <c r="C125" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D125" t="s">
-        <v>307</v>
-      </c>
-      <c r="E125">
-        <v>0.65738153457641602</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3666,14 +2900,8 @@
       <c r="C126" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D126" t="s">
-        <v>306</v>
-      </c>
-      <c r="E126" s="2">
-        <v>3.04184068227187E-5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:3" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3683,14 +2911,8 @@
       <c r="C127" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D127" t="s">
-        <v>307</v>
-      </c>
-      <c r="E127">
-        <v>0.92488050460815396</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3700,14 +2922,8 @@
       <c r="C128" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D128" t="s">
-        <v>306</v>
-      </c>
-      <c r="E128">
-        <v>7.3027350008487701E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3717,14 +2933,8 @@
       <c r="C129" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D129" t="s">
-        <v>306</v>
-      </c>
-      <c r="E129">
-        <v>0.448704123497009</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3734,14 +2944,8 @@
       <c r="C130" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D130" t="s">
-        <v>308</v>
-      </c>
-      <c r="E130">
-        <v>0.51973754167556796</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3751,14 +2955,8 @@
       <c r="C131" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D131" t="s">
-        <v>306</v>
-      </c>
-      <c r="E131">
-        <v>0.102071672677994</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3768,14 +2966,8 @@
       <c r="C132" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D132" t="s">
-        <v>306</v>
-      </c>
-      <c r="E132" s="2">
-        <v>3.9155727271644697E-11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:3" ht="388.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3785,14 +2977,8 @@
       <c r="C133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D133" t="s">
-        <v>306</v>
-      </c>
-      <c r="E133">
-        <v>1.4532237546518399E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3802,14 +2988,8 @@
       <c r="C134" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D134" t="s">
-        <v>306</v>
-      </c>
-      <c r="E134">
-        <v>9.3171112239360792E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3819,14 +2999,8 @@
       <c r="C135" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D135" t="s">
-        <v>307</v>
-      </c>
-      <c r="E135">
-        <v>0.68636858463287398</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3836,14 +3010,8 @@
       <c r="C136" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D136" t="s">
-        <v>308</v>
-      </c>
-      <c r="E136">
-        <v>0.58256429433822599</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3853,14 +3021,8 @@
       <c r="C137" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D137" t="s">
-        <v>307</v>
-      </c>
-      <c r="E137">
-        <v>0.908563733100891</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3870,14 +3032,8 @@
       <c r="C138" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D138" t="s">
-        <v>306</v>
-      </c>
-      <c r="E138" s="2">
-        <v>4.7395591536769603E-5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3887,14 +3043,8 @@
       <c r="C139" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D139" t="s">
-        <v>306</v>
-      </c>
-      <c r="E139">
-        <v>1.05916908069048E-4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:3" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3904,14 +3054,8 @@
       <c r="C140" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D140" t="s">
-        <v>306</v>
-      </c>
-      <c r="E140">
-        <v>4.7237057238817201E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3921,14 +3065,8 @@
       <c r="C141" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D141" t="s">
-        <v>306</v>
-      </c>
-      <c r="E141" s="2">
-        <v>4.3192376324441297E-5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" ht="374.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3938,14 +3076,8 @@
       <c r="C142" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D142" t="s">
-        <v>308</v>
-      </c>
-      <c r="E142">
-        <v>0.50531750917434703</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3955,14 +3087,8 @@
       <c r="C143" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D143" t="s">
-        <v>306</v>
-      </c>
-      <c r="E143">
-        <v>0.31025892496108998</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3972,14 +3098,8 @@
       <c r="C144" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D144" t="s">
-        <v>306</v>
-      </c>
-      <c r="E144">
-        <v>1.0858298046514401E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3989,14 +3109,8 @@
       <c r="C145" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D145" t="s">
-        <v>306</v>
-      </c>
-      <c r="E145">
-        <v>5.7029310846701297E-4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:3" ht="230.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4006,14 +3120,8 @@
       <c r="C146" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D146" t="s">
-        <v>306</v>
-      </c>
-      <c r="E146">
-        <v>7.5451880693435704E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4023,14 +3131,8 @@
       <c r="C147" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D147" t="s">
-        <v>306</v>
-      </c>
-      <c r="E147" s="2">
-        <v>3.7602498892397299E-9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4040,14 +3142,8 @@
       <c r="C148" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D148" t="s">
-        <v>306</v>
-      </c>
-      <c r="E148" s="2">
-        <v>7.8856025709228601E-8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4057,14 +3153,8 @@
       <c r="C149" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D149" t="s">
-        <v>306</v>
-      </c>
-      <c r="E149">
-        <v>2.7950858697295199E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:3" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4074,14 +3164,8 @@
       <c r="C150" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D150" t="s">
-        <v>306</v>
-      </c>
-      <c r="E150">
-        <v>0.148488715291023</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4091,14 +3175,8 @@
       <c r="C151" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D151" t="s">
-        <v>306</v>
-      </c>
-      <c r="E151">
-        <v>2.5896987062878901E-4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4108,14 +3186,8 @@
       <c r="C152" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D152" t="s">
-        <v>306</v>
-      </c>
-      <c r="E152" s="2">
-        <v>1.47176227368456E-12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4125,14 +3197,8 @@
       <c r="C153" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D153" t="s">
-        <v>306</v>
-      </c>
-      <c r="E153">
-        <v>1.27380527555943E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4142,14 +3208,8 @@
       <c r="C154" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D154" t="s">
-        <v>306</v>
-      </c>
-      <c r="E154">
-        <v>1.2909092474728801E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4159,14 +3219,8 @@
       <c r="C155" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D155" t="s">
-        <v>306</v>
-      </c>
-      <c r="E155">
-        <v>2.1598365157842601E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4176,14 +3230,8 @@
       <c r="C156" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D156" t="s">
-        <v>306</v>
-      </c>
-      <c r="E156">
-        <v>1.52919590473175E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:3" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4193,14 +3241,8 @@
       <c r="C157" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D157" t="s">
-        <v>306</v>
-      </c>
-      <c r="E157">
-        <v>0.23065495491027799</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4210,14 +3252,8 @@
       <c r="C158" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D158" t="s">
-        <v>306</v>
-      </c>
-      <c r="E158">
-        <v>0.328291565179825</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4227,14 +3263,8 @@
       <c r="C159" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D159" t="s">
-        <v>306</v>
-      </c>
-      <c r="E159">
-        <v>0.17233231663703899</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:3" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4244,14 +3274,8 @@
       <c r="C160" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D160" t="s">
-        <v>306</v>
-      </c>
-      <c r="E160">
-        <v>0.19920335710048701</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4261,14 +3285,8 @@
       <c r="C161" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D161" t="s">
-        <v>307</v>
-      </c>
-      <c r="E161">
-        <v>0.69982147216796897</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:3" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4278,14 +3296,8 @@
       <c r="C162" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D162" t="s">
-        <v>306</v>
-      </c>
-      <c r="E162">
-        <v>6.1574678868055302E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4295,14 +3307,8 @@
       <c r="C163" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D163" t="s">
-        <v>307</v>
-      </c>
-      <c r="E163">
-        <v>0.99542081356048595</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4312,14 +3318,8 @@
       <c r="C164" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D164" t="s">
-        <v>306</v>
-      </c>
-      <c r="E164" s="2">
-        <v>5.46816552541435E-13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4329,14 +3329,8 @@
       <c r="C165" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D165" t="s">
-        <v>308</v>
-      </c>
-      <c r="E165">
-        <v>0.57034033536911</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4346,14 +3340,8 @@
       <c r="C166" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D166" t="s">
-        <v>307</v>
-      </c>
-      <c r="E166">
-        <v>0.88678139448165905</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4363,14 +3351,8 @@
       <c r="C167" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D167" t="s">
-        <v>306</v>
-      </c>
-      <c r="E167">
-        <v>1.68624066282064E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4380,14 +3362,8 @@
       <c r="C168" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D168" t="s">
-        <v>308</v>
-      </c>
-      <c r="E168">
-        <v>0.569996297359467</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4397,14 +3373,8 @@
       <c r="C169" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D169" t="s">
-        <v>306</v>
-      </c>
-      <c r="E169">
-        <v>1.41348903998733E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:3" ht="403.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4414,14 +3384,8 @@
       <c r="C170" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D170" t="s">
-        <v>306</v>
-      </c>
-      <c r="E170" s="2">
-        <v>1.26938766698004E-5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4431,14 +3395,8 @@
       <c r="C171" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D171" t="s">
-        <v>308</v>
-      </c>
-      <c r="E171">
-        <v>0.599978268146515</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4448,14 +3406,8 @@
       <c r="C172" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D172" t="s">
-        <v>306</v>
-      </c>
-      <c r="E172">
-        <v>4.7232985496521003E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:3" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4465,14 +3417,8 @@
       <c r="C173" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D173" t="s">
-        <v>306</v>
-      </c>
-      <c r="E173">
-        <v>0.30619168281555198</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4482,14 +3428,8 @@
       <c r="C174" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D174" t="s">
-        <v>306</v>
-      </c>
-      <c r="E174">
-        <v>1.58870476298034E-4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4499,14 +3439,8 @@
       <c r="C175" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D175" t="s">
-        <v>306</v>
-      </c>
-      <c r="E175">
-        <v>0.20786541700363201</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:3" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4516,14 +3450,8 @@
       <c r="C176" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D176" t="s">
-        <v>306</v>
-      </c>
-      <c r="E176">
-        <v>6.2037613242864602E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4533,14 +3461,8 @@
       <c r="C177" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D177" t="s">
-        <v>307</v>
-      </c>
-      <c r="E177">
-        <v>0.63476574420928999</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4550,14 +3472,8 @@
       <c r="C178" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D178" t="s">
-        <v>306</v>
-      </c>
-      <c r="E178" s="2">
-        <v>1.02970902915445E-8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4567,14 +3483,8 @@
       <c r="C179" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D179" t="s">
-        <v>306</v>
-      </c>
-      <c r="E179">
-        <v>0.12041525542736101</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:3" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4584,14 +3494,8 @@
       <c r="C180" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D180" t="s">
-        <v>307</v>
-      </c>
-      <c r="E180">
-        <v>0.77926665544509899</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:3" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4601,14 +3505,8 @@
       <c r="C181" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D181" t="s">
-        <v>306</v>
-      </c>
-      <c r="E181">
-        <v>1.2913095997646501E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4618,14 +3516,8 @@
       <c r="C182" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D182" t="s">
-        <v>306</v>
-      </c>
-      <c r="E182">
-        <v>0.16589874029159499</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:3" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4635,14 +3527,8 @@
       <c r="C183" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D183" t="s">
-        <v>306</v>
-      </c>
-      <c r="E183">
-        <v>0.25019818544387801</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:3" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4652,14 +3538,8 @@
       <c r="C184" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D184" t="s">
-        <v>307</v>
-      </c>
-      <c r="E184">
-        <v>0.77758306264877297</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4669,14 +3549,8 @@
       <c r="C185" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D185" t="s">
-        <v>306</v>
-      </c>
-      <c r="E185">
-        <v>0.113893002271652</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:3" ht="360" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4686,14 +3560,8 @@
       <c r="C186" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D186" t="s">
-        <v>306</v>
-      </c>
-      <c r="E186">
-        <v>0.36627417802810702</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:3" ht="388.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4703,14 +3571,8 @@
       <c r="C187" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D187" t="s">
-        <v>306</v>
-      </c>
-      <c r="E187">
-        <v>0.10226281732320799</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:3" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4720,14 +3582,8 @@
       <c r="C188" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D188" t="s">
-        <v>306</v>
-      </c>
-      <c r="E188">
-        <v>9.8986234515905398E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4737,14 +3593,8 @@
       <c r="C189" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D189" t="s">
-        <v>306</v>
-      </c>
-      <c r="E189" s="2">
-        <v>1.2190036480230801E-10</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4754,14 +3604,8 @@
       <c r="C190" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D190" t="s">
-        <v>306</v>
-      </c>
-      <c r="E190" s="2">
-        <v>2.95893096335931E-6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4771,14 +3615,8 @@
       <c r="C191" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D191" t="s">
-        <v>306</v>
-      </c>
-      <c r="E191" s="2">
-        <v>7.6183582677913398E-6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:3" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4788,14 +3626,8 @@
       <c r="C192" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D192" t="s">
-        <v>306</v>
-      </c>
-      <c r="E192">
-        <v>9.17866884265095E-4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4805,14 +3637,8 @@
       <c r="C193" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D193" t="s">
-        <v>306</v>
-      </c>
-      <c r="E193" s="2">
-        <v>1.20671966495433E-15</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4822,14 +3648,8 @@
       <c r="C194" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D194" t="s">
-        <v>306</v>
-      </c>
-      <c r="E194" s="2">
-        <v>4.6019275629777297E-13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4839,14 +3659,8 @@
       <c r="C195" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D195" t="s">
-        <v>306</v>
-      </c>
-      <c r="E195" s="2">
-        <v>5.0859586764317997E-8</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:3" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4856,14 +3670,8 @@
       <c r="C196" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D196" t="s">
-        <v>307</v>
-      </c>
-      <c r="E196">
-        <v>0.70543307065963701</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4873,14 +3681,8 @@
       <c r="C197" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D197" t="s">
-        <v>307</v>
-      </c>
-      <c r="E197">
-        <v>0.91821897029876698</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:3" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4890,14 +3692,8 @@
       <c r="C198" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D198" t="s">
-        <v>306</v>
-      </c>
-      <c r="E198">
-        <v>1.6146408161148401E-3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4907,14 +3703,8 @@
       <c r="C199" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D199" t="s">
-        <v>306</v>
-      </c>
-      <c r="E199">
-        <v>0.435972720384598</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4924,14 +3714,8 @@
       <c r="C200" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D200" t="s">
-        <v>307</v>
-      </c>
-      <c r="E200">
-        <v>0.69310104846954301</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:3" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4941,14 +3725,8 @@
       <c r="C201" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D201" t="s">
-        <v>306</v>
-      </c>
-      <c r="E201">
-        <v>2.2314849775284498E-3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:3" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4958,14 +3736,8 @@
       <c r="C202" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D202" t="s">
-        <v>306</v>
-      </c>
-      <c r="E202" s="2">
-        <v>5.0639464461710297E-5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:3" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4975,14 +3747,8 @@
       <c r="C203" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D203" t="s">
-        <v>306</v>
-      </c>
-      <c r="E203">
-        <v>5.9544857591390603E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4992,14 +3758,8 @@
       <c r="C204" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D204" t="s">
-        <v>306</v>
-      </c>
-      <c r="E204">
-        <v>0.128922089934349</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5009,14 +3769,8 @@
       <c r="C205" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D205" t="s">
-        <v>306</v>
-      </c>
-      <c r="E205">
-        <v>2.6084415731020299E-4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5026,14 +3780,8 @@
       <c r="C206" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D206" t="s">
-        <v>306</v>
-      </c>
-      <c r="E206">
-        <v>4.0141884237527799E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:3" ht="360" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5043,14 +3791,8 @@
       <c r="C207" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D207" t="s">
-        <v>306</v>
-      </c>
-      <c r="E207">
-        <v>2.23187802475877E-4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5060,14 +3802,8 @@
       <c r="C208" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D208" t="s">
-        <v>306</v>
-      </c>
-      <c r="E208" s="2">
-        <v>1.01195174462276E-9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5077,14 +3813,8 @@
       <c r="C209" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D209" t="s">
-        <v>306</v>
-      </c>
-      <c r="E209" s="2">
-        <v>2.3374726633440498E-12</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5094,14 +3824,8 @@
       <c r="C210" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D210" t="s">
-        <v>306</v>
-      </c>
-      <c r="E210" s="2">
-        <v>2.4103623985638501E-8</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5111,14 +3835,8 @@
       <c r="C211" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D211" t="s">
-        <v>306</v>
-      </c>
-      <c r="E211">
-        <v>2.23851806367747E-4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5128,14 +3846,8 @@
       <c r="C212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D212" t="s">
-        <v>306</v>
-      </c>
-      <c r="E212" s="2">
-        <v>2.27499203901971E-5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5145,14 +3857,8 @@
       <c r="C213" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D213" t="s">
-        <v>306</v>
-      </c>
-      <c r="E213" s="2">
-        <v>1.52471157921497E-9</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5162,14 +3868,8 @@
       <c r="C214" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D214" t="s">
-        <v>306</v>
-      </c>
-      <c r="E214">
-        <v>9.6455216407775896E-3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:3" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5179,14 +3879,8 @@
       <c r="C215" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D215" t="s">
-        <v>307</v>
-      </c>
-      <c r="E215">
-        <v>0.98406881093978904</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:3" ht="403.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5196,14 +3890,8 @@
       <c r="C216" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D216" t="s">
-        <v>306</v>
-      </c>
-      <c r="E216" s="2">
-        <v>2.2528704448632202E-6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5213,14 +3901,8 @@
       <c r="C217" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D217" t="s">
-        <v>306</v>
-      </c>
-      <c r="E217">
-        <v>5.2788428962230703E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:3" ht="403.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5230,14 +3912,8 @@
       <c r="C218" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D218" t="s">
-        <v>306</v>
-      </c>
-      <c r="E218">
-        <v>7.4784678872674704E-4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5247,14 +3923,8 @@
       <c r="C219" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D219" t="s">
-        <v>306</v>
-      </c>
-      <c r="E219" s="2">
-        <v>2.7854297305631402E-16</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:3" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5264,14 +3934,8 @@
       <c r="C220" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D220" t="s">
-        <v>306</v>
-      </c>
-      <c r="E220" s="2">
-        <v>4.7607900341972702E-5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5281,14 +3945,8 @@
       <c r="C221" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D221" t="s">
-        <v>306</v>
-      </c>
-      <c r="E221">
-        <v>4.3984106741845599E-3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5298,14 +3956,8 @@
       <c r="C222" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D222" t="s">
-        <v>307</v>
-      </c>
-      <c r="E222">
-        <v>0.66215115785598799</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5315,14 +3967,8 @@
       <c r="C223" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D223" t="s">
-        <v>307</v>
-      </c>
-      <c r="E223">
-        <v>0.79846328496932995</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:3" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5332,14 +3978,8 @@
       <c r="C224" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D224" t="s">
-        <v>306</v>
-      </c>
-      <c r="E224">
-        <v>0.14336775243282299</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5349,14 +3989,8 @@
       <c r="C225" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D225" t="s">
-        <v>308</v>
-      </c>
-      <c r="E225">
-        <v>0.57054662704467796</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5366,14 +4000,8 @@
       <c r="C226" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D226" t="s">
-        <v>306</v>
-      </c>
-      <c r="E226" s="2">
-        <v>4.9060866480488097E-9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5383,14 +4011,8 @@
       <c r="C227" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D227" t="s">
-        <v>306</v>
-      </c>
-      <c r="E227" s="2">
-        <v>4.5397605390462601E-6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5400,14 +4022,8 @@
       <c r="C228" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D228" t="s">
-        <v>306</v>
-      </c>
-      <c r="E228">
-        <v>0.40788409113884</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5417,14 +4033,8 @@
       <c r="C229" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D229" t="s">
-        <v>306</v>
-      </c>
-      <c r="E229" s="2">
-        <v>4.6533005178045099E-14</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5434,14 +4044,8 @@
       <c r="C230" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D230" t="s">
-        <v>307</v>
-      </c>
-      <c r="E230">
-        <v>0.93202883005142201</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5451,14 +4055,8 @@
       <c r="C231" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D231" t="s">
-        <v>306</v>
-      </c>
-      <c r="E231" s="2">
-        <v>3.5683566323996301E-8</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:3" ht="331.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5468,14 +4066,8 @@
       <c r="C232" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D232" t="s">
-        <v>306</v>
-      </c>
-      <c r="E232">
-        <v>2.2721529006958001E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5485,14 +4077,8 @@
       <c r="C233" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D233" t="s">
-        <v>306</v>
-      </c>
-      <c r="E233">
-        <v>0.27014791965484602</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:3" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5502,14 +4088,8 @@
       <c r="C234" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D234" t="s">
-        <v>306</v>
-      </c>
-      <c r="E234">
-        <v>6.5365980844944705E-4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5519,14 +4099,8 @@
       <c r="C235" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D235" t="s">
-        <v>306</v>
-      </c>
-      <c r="E235" s="2">
-        <v>2.24908490054077E-6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5536,14 +4110,8 @@
       <c r="C236" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D236" t="s">
-        <v>306</v>
-      </c>
-      <c r="E236">
-        <v>0.13733205199241599</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:3" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5553,14 +4121,8 @@
       <c r="C237" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D237" t="s">
-        <v>306</v>
-      </c>
-      <c r="E237">
-        <v>3.6354873329401002E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5570,14 +4132,8 @@
       <c r="C238" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D238" t="s">
-        <v>307</v>
-      </c>
-      <c r="E238">
-        <v>0.71549522876739502</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5587,14 +4143,8 @@
       <c r="C239" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D239" t="s">
-        <v>306</v>
-      </c>
-      <c r="E239">
-        <v>1.4072088524699201E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:3" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5604,14 +4154,8 @@
       <c r="C240" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D240" t="s">
-        <v>306</v>
-      </c>
-      <c r="E240">
-        <v>0.133347362279892</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5621,14 +4165,8 @@
       <c r="C241" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D241" t="s">
-        <v>306</v>
-      </c>
-      <c r="E241">
-        <v>0.43125984072685197</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5638,14 +4176,8 @@
       <c r="C242" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D242" t="s">
-        <v>306</v>
-      </c>
-      <c r="E242" s="2">
-        <v>6.6676562710199505E-5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:3" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5655,14 +4187,8 @@
       <c r="C243" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D243" t="s">
-        <v>307</v>
-      </c>
-      <c r="E243">
-        <v>0.69839280843734697</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5672,14 +4198,8 @@
       <c r="C244" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D244" t="s">
-        <v>306</v>
-      </c>
-      <c r="E244">
-        <v>3.7688694894313798E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>244</v>
       </c>
@@ -5689,14 +4209,8 @@
       <c r="C245" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D245" t="s">
-        <v>306</v>
-      </c>
-      <c r="E245" s="2">
-        <v>1.1590981507936199E-9</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>245</v>
       </c>
@@ -5706,14 +4220,8 @@
       <c r="C246" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D246" t="s">
-        <v>306</v>
-      </c>
-      <c r="E246">
-        <v>0.31692907214164701</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>246</v>
       </c>
@@ -5723,14 +4231,8 @@
       <c r="C247" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D247" t="s">
-        <v>306</v>
-      </c>
-      <c r="E247" s="2">
-        <v>6.6350254179781099E-9</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5740,14 +4242,8 @@
       <c r="C248" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D248" t="s">
-        <v>306</v>
-      </c>
-      <c r="E248">
-        <v>0.271749317646027</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>248</v>
       </c>
@@ -5757,14 +4253,8 @@
       <c r="C249" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D249" t="s">
-        <v>306</v>
-      </c>
-      <c r="E249">
-        <v>0.25582280755043002</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>249</v>
       </c>
@@ -5774,14 +4264,8 @@
       <c r="C250" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D250" t="s">
-        <v>307</v>
-      </c>
-      <c r="E250">
-        <v>0.80091965198516801</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>250</v>
       </c>
@@ -5791,14 +4275,8 @@
       <c r="C251" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D251" t="s">
-        <v>307</v>
-      </c>
-      <c r="E251">
-        <v>0.81700599193572998</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:3" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>251</v>
       </c>
@@ -5808,14 +4286,8 @@
       <c r="C252" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D252" t="s">
-        <v>306</v>
-      </c>
-      <c r="E252" s="2">
-        <v>1.24697071441915E-5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5825,14 +4297,8 @@
       <c r="C253" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D253" t="s">
-        <v>306</v>
-      </c>
-      <c r="E253">
-        <v>6.44692108035088E-2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>253</v>
       </c>
@@ -5842,14 +4308,8 @@
       <c r="C254" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D254" t="s">
-        <v>307</v>
-      </c>
-      <c r="E254">
-        <v>0.65531587600707997</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>254</v>
       </c>
@@ -5859,14 +4319,8 @@
       <c r="C255" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D255" t="s">
-        <v>306</v>
-      </c>
-      <c r="E255">
-        <v>0.14098742604255701</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>255</v>
       </c>
@@ -5876,14 +4330,8 @@
       <c r="C256" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D256" t="s">
-        <v>306</v>
-      </c>
-      <c r="E256">
-        <v>0.15630383789539301</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>256</v>
       </c>
@@ -5893,14 +4341,8 @@
       <c r="C257" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D257" t="s">
-        <v>306</v>
-      </c>
-      <c r="E257" s="2">
-        <v>2.80800094486535E-20</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>257</v>
       </c>
@@ -5910,14 +4352,8 @@
       <c r="C258" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D258" t="s">
-        <v>306</v>
-      </c>
-      <c r="E258">
-        <v>0.325995594263077</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>258</v>
       </c>
@@ -5927,14 +4363,8 @@
       <c r="C259" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D259" t="s">
-        <v>306</v>
-      </c>
-      <c r="E259">
-        <v>0.300460815429688</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>259</v>
       </c>
@@ -5944,14 +4374,8 @@
       <c r="C260" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D260" t="s">
-        <v>306</v>
-      </c>
-      <c r="E260" s="2">
-        <v>5.9838927108910803E-17</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>260</v>
       </c>
@@ -5961,14 +4385,8 @@
       <c r="C261" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D261" t="s">
-        <v>306</v>
-      </c>
-      <c r="E261" s="2">
-        <v>1.11091048893286E-6</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>261</v>
       </c>
@@ -5978,14 +4396,8 @@
       <c r="C262" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D262" t="s">
-        <v>306</v>
-      </c>
-      <c r="E262" s="2">
-        <v>4.9795671058783203E-11</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:3" ht="403.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>262</v>
       </c>
@@ -5995,14 +4407,8 @@
       <c r="C263" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D263" t="s">
-        <v>306</v>
-      </c>
-      <c r="E263">
-        <v>6.3574954867363004E-2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6012,14 +4418,8 @@
       <c r="C264" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D264" t="s">
-        <v>306</v>
-      </c>
-      <c r="E264">
-        <v>9.6804799977690003E-4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6029,14 +4429,8 @@
       <c r="C265" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D265" t="s">
-        <v>306</v>
-      </c>
-      <c r="E265">
-        <v>2.7586482465267199E-3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:3" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6046,14 +4440,8 @@
       <c r="C266" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D266" t="s">
-        <v>306</v>
-      </c>
-      <c r="E266">
-        <v>4.3722549453377698E-3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6063,14 +4451,8 @@
       <c r="C267" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D267" t="s">
-        <v>306</v>
-      </c>
-      <c r="E267" s="2">
-        <v>1.9735439309442898E-6</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:3" ht="345.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6080,14 +4462,8 @@
       <c r="C268" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D268" t="s">
-        <v>306</v>
-      </c>
-      <c r="E268">
-        <v>1.0344987735152199E-2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6097,14 +4473,8 @@
       <c r="C269" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D269" t="s">
-        <v>306</v>
-      </c>
-      <c r="E269" s="2">
-        <v>9.0005260062753206E-6</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:3" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6114,14 +4484,8 @@
       <c r="C270" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D270" t="s">
-        <v>306</v>
-      </c>
-      <c r="E270">
-        <v>2.20843372517265E-4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6131,14 +4495,8 @@
       <c r="C271" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D271" t="s">
-        <v>306</v>
-      </c>
-      <c r="E271">
-        <v>4.6510002575814698E-3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6148,14 +4506,8 @@
       <c r="C272" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D272" t="s">
-        <v>306</v>
-      </c>
-      <c r="E272">
-        <v>0.113618664443493</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:3" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6165,14 +4517,8 @@
       <c r="C273" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D273" t="s">
-        <v>306</v>
-      </c>
-      <c r="E273">
-        <v>1.22821684926748E-2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6182,14 +4528,8 @@
       <c r="C274" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D274" t="s">
-        <v>306</v>
-      </c>
-      <c r="E274">
-        <v>1.850301399827E-3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6199,14 +4539,8 @@
       <c r="C275" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D275" t="s">
-        <v>306</v>
-      </c>
-      <c r="E275" s="2">
-        <v>5.9136327763553702E-5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:3" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6216,14 +4550,8 @@
       <c r="C276" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D276" t="s">
-        <v>306</v>
-      </c>
-      <c r="E276">
-        <v>3.3030953258276E-2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:3" ht="288" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6233,14 +4561,8 @@
       <c r="C277" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D277" t="s">
-        <v>306</v>
-      </c>
-      <c r="E277">
-        <v>6.4048729836940793E-2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:3" ht="360" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6250,14 +4572,8 @@
       <c r="C278" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D278" t="s">
-        <v>306</v>
-      </c>
-      <c r="E278" s="2">
-        <v>5.4627446388622005E-7</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6267,14 +4583,8 @@
       <c r="C279" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D279" t="s">
-        <v>306</v>
-      </c>
-      <c r="E279" s="2">
-        <v>3.1047783011217702E-8</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:3" ht="331.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6284,14 +4594,8 @@
       <c r="C280" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D280" t="s">
-        <v>306</v>
-      </c>
-      <c r="E280">
-        <v>1.12816486507654E-2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:3" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6301,14 +4605,8 @@
       <c r="C281" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D281" t="s">
-        <v>306</v>
-      </c>
-      <c r="E281">
-        <v>1.09734907746315E-2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6318,14 +4616,8 @@
       <c r="C282" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D282" t="s">
-        <v>307</v>
-      </c>
-      <c r="E282">
-        <v>0.98658299446106001</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6335,14 +4627,8 @@
       <c r="C283" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D283" t="s">
-        <v>306</v>
-      </c>
-      <c r="E283">
-        <v>7.5678434222936604E-3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:3" ht="230.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6352,14 +4638,8 @@
       <c r="C284" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D284" t="s">
-        <v>306</v>
-      </c>
-      <c r="E284" s="2">
-        <v>4.11757246183697E-5</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6369,14 +4649,8 @@
       <c r="C285" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D285" t="s">
-        <v>306</v>
-      </c>
-      <c r="E285">
-        <v>1.2262347154319299E-3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:3" ht="331.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6386,14 +4660,8 @@
       <c r="C286" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D286" t="s">
-        <v>306</v>
-      </c>
-      <c r="E286" s="2">
-        <v>2.7353773930372001E-6</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6403,14 +4671,8 @@
       <c r="C287" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D287" t="s">
-        <v>306</v>
-      </c>
-      <c r="E287">
-        <v>5.33422164153308E-4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6420,14 +4682,8 @@
       <c r="C288" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D288" t="s">
-        <v>306</v>
-      </c>
-      <c r="E288">
-        <v>0.143546968698502</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:3" ht="316.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6437,14 +4693,8 @@
       <c r="C289" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D289" t="s">
-        <v>306</v>
-      </c>
-      <c r="E289">
-        <v>9.86877712421119E-4</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:3" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6454,14 +4704,8 @@
       <c r="C290" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D290" t="s">
-        <v>306</v>
-      </c>
-      <c r="E290">
-        <v>0.40259924530982999</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6471,14 +4715,8 @@
       <c r="C291" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D291" t="s">
-        <v>307</v>
-      </c>
-      <c r="E291">
-        <v>0.81022590398788497</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6488,14 +4726,8 @@
       <c r="C292" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D292" t="s">
-        <v>306</v>
-      </c>
-      <c r="E292" s="2">
-        <v>5.9593849854877598E-9</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6505,14 +4737,8 @@
       <c r="C293" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D293" t="s">
-        <v>306</v>
-      </c>
-      <c r="E293">
-        <v>0.36978107690811202</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6522,14 +4748,8 @@
       <c r="C294" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D294" t="s">
-        <v>306</v>
-      </c>
-      <c r="E294">
-        <v>0.332304626703262</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:3" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6539,14 +4759,8 @@
       <c r="C295" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D295" t="s">
-        <v>307</v>
-      </c>
-      <c r="E295">
-        <v>0.89433610439300504</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6556,14 +4770,8 @@
       <c r="C296" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D296" t="s">
-        <v>307</v>
-      </c>
-      <c r="E296">
-        <v>0.89119046926498402</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6573,14 +4781,8 @@
       <c r="C297" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D297" t="s">
-        <v>306</v>
-      </c>
-      <c r="E297">
-        <v>0.17245398461818701</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:3" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6590,14 +4792,8 @@
       <c r="C298" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D298" t="s">
-        <v>307</v>
-      </c>
-      <c r="E298">
-        <v>0.85201668739318803</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:3" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6607,14 +4803,8 @@
       <c r="C299" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D299" t="s">
-        <v>306</v>
-      </c>
-      <c r="E299" s="2">
-        <v>1.69742743310053E-5</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6624,14 +4814,8 @@
       <c r="C300" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D300" t="s">
-        <v>306</v>
-      </c>
-      <c r="E300">
-        <v>5.1753981970250598E-3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:3" ht="388.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6640,12 +4824,6 @@
       </c>
       <c r="C301" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D301" t="s">
-        <v>306</v>
-      </c>
-      <c r="E301">
-        <v>1.0551869636401499E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6654,16 +4832,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
       <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
         <x15:webExtension appRef="{67A63C59-3B15-4C04-8A44-1860D39A7B51}">
-          <xm:f>data!D1</xm:f>
+          <xm:f>data!#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{61ACD7AD-D993-4529-9B49-0C23147E798B}">
-          <xm:f>data!D1</xm:f>
+          <xm:f>data!#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{EBCD8897-26C3-4FC6-8E72-BAFC2651AAD0}">
           <xm:f>data!$C$1:$C$301</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{9AEB3BD8-6443-4116-802E-09573FDEC82D}">
-          <xm:f>data!D1:E301</xm:f>
+          <xm:f>data!#REF!</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>
